--- a/project/Scrum/Scrum.xlsx
+++ b/project/Scrum/Scrum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\软件工程小组\SE\project\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F688BC-1CB4-46F6-8777-1019375E79D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6CB2BB-2B75-4730-8B8A-DC661667B6FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="509" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="509" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户类型" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="150">
   <si>
     <t>ID</t>
   </si>
@@ -552,6 +552,9 @@
   <si>
     <t>作为一个普通用户，我希望打开应用有一个加载页面，以便可以更加流畅使用防止内容丢失</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>In progress </t>
   </si>
 </sst>
 </file>
@@ -604,7 +607,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -626,6 +629,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF2EEC08"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,61 +1074,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1155,24 +1113,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1188,21 +1128,120 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1218,16 +1257,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1239,40 +1287,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1299,13 +1314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1607,37 +1616,37 @@
       <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:6" ht="19.899999999999999" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="1:6" ht="19.899999999999999" customHeight="1">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1671,50 +1680,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.6" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="52" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
     </row>
     <row r="4" spans="1:5" ht="19.899999999999999" customHeight="1">
       <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="19">
         <v>100</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="19">
         <v>10</v>
       </c>
     </row>
@@ -1722,16 +1731,16 @@
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="19">
         <v>80</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="19">
         <v>4</v>
       </c>
     </row>
@@ -1739,16 +1748,16 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="19">
         <v>90</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="19">
         <v>8</v>
       </c>
     </row>
@@ -1756,16 +1765,16 @@
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="19">
         <v>89</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="19">
         <v>9</v>
       </c>
     </row>
@@ -1773,16 +1782,16 @@
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="12">
         <v>95</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="12">
         <v>15</v>
       </c>
     </row>
@@ -1790,16 +1799,16 @@
       <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="11">
         <v>90</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="11">
         <v>10</v>
       </c>
     </row>
@@ -1807,16 +1816,16 @@
       <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="11">
         <v>95</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="11">
         <v>11</v>
       </c>
     </row>
@@ -1824,16 +1833,16 @@
       <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="14">
         <v>96</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="14">
         <v>12</v>
       </c>
     </row>
@@ -1841,7 +1850,7 @@
       <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="17" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1929,91 +1938,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
     </row>
     <row r="3" spans="1:12" ht="25.15" customHeight="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="4" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="A4" s="36">
+      <c r="A4" s="19">
         <v>1</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="19">
         <v>100</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="19">
         <v>10</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="19">
         <v>2</v>
       </c>
       <c r="J4" s="5" t="s">
@@ -2021,21 +2030,21 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="35" t="s">
+      <c r="A5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="19">
         <v>2</v>
       </c>
       <c r="J5" s="5" t="s">
@@ -2043,21 +2052,21 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="35" t="s">
+      <c r="A6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="19">
         <v>2</v>
       </c>
       <c r="J6" s="5" t="s">
@@ -2065,21 +2074,21 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="35" t="s">
+      <c r="A7" s="74"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="19">
         <v>3</v>
       </c>
       <c r="J7" s="5" t="s">
@@ -2087,21 +2096,21 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="A8" s="64"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="35" t="s">
+      <c r="A8" s="77"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="19">
         <v>1</v>
       </c>
       <c r="J8" s="5" t="s">
@@ -2109,330 +2118,330 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="A9" s="20">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="11">
         <v>96</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="11">
         <v>12</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="20" t="s">
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="46" t="s">
+      <c r="H10" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="11">
         <v>3</v>
       </c>
-      <c r="J10" s="47" t="s">
+      <c r="J10" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="25.15" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="37" t="s">
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="48" t="s">
+      <c r="H11" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="12">
         <v>3</v>
       </c>
-      <c r="J11" s="38" t="s">
+      <c r="J11" s="21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="37" t="s">
+      <c r="A12" s="63"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H12" s="48" t="s">
+      <c r="H12" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="29">
-        <v>2</v>
-      </c>
-      <c r="J12" s="38" t="s">
+      <c r="I12" s="12">
+        <v>2</v>
+      </c>
+      <c r="J12" s="21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="37" t="s">
+      <c r="A13" s="63"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="49" t="s">
+      <c r="H13" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="31">
-        <v>2</v>
-      </c>
-      <c r="J13" s="38" t="s">
+      <c r="I13" s="14">
+        <v>2</v>
+      </c>
+      <c r="J13" s="21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="37" t="s">
+      <c r="A14" s="63"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="46" t="s">
+      <c r="H14" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="28">
-        <v>2</v>
-      </c>
-      <c r="J14" s="38" t="s">
+      <c r="I14" s="11">
+        <v>2</v>
+      </c>
+      <c r="J14" s="21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="A15" s="20">
+      <c r="A15" s="9">
         <v>5</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="9">
         <v>95</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="9">
         <v>15</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="45" t="s">
+      <c r="H15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="45" t="s">
+      <c r="I15" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="45" t="s">
+      <c r="J15" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="19.899999999999999" customHeight="1">
-      <c r="A16" s="55"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="30" t="s">
+      <c r="A16" s="65"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="H16" s="53" t="s">
+      <c r="H16" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="32">
-        <v>2</v>
-      </c>
-      <c r="J16" s="54" t="s">
+      <c r="I16" s="15">
+        <v>2</v>
+      </c>
+      <c r="J16" s="28" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A17" s="56"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="30" t="s">
+      <c r="A17" s="66"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="32">
-        <v>2</v>
-      </c>
-      <c r="J17" s="54" t="s">
+      <c r="I17" s="15">
+        <v>2</v>
+      </c>
+      <c r="J17" s="28" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="25.15" customHeight="1">
-      <c r="A18" s="56"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="30" t="s">
+      <c r="A18" s="66"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="53" t="s">
+      <c r="H18" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="32">
-        <v>2</v>
-      </c>
-      <c r="J18" s="54" t="s">
+      <c r="I18" s="15">
+        <v>2</v>
+      </c>
+      <c r="J18" s="28" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A19" s="56"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="30" t="s">
+      <c r="A19" s="66"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="H19" s="53" t="s">
+      <c r="H19" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="32">
-        <v>2</v>
-      </c>
-      <c r="J19" s="54" t="s">
+      <c r="I19" s="15">
+        <v>2</v>
+      </c>
+      <c r="J19" s="28" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A20" s="56"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="30" t="s">
+      <c r="A20" s="66"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="G20" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="H20" s="53" t="s">
+      <c r="H20" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="32">
-        <v>2</v>
-      </c>
-      <c r="J20" s="54" t="s">
+      <c r="I20" s="15">
+        <v>2</v>
+      </c>
+      <c r="J20" s="28" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A21" s="56"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="30" t="s">
+      <c r="A21" s="66"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H21" s="53" t="s">
+      <c r="H21" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="I21" s="32">
+      <c r="I21" s="15">
         <v>3</v>
       </c>
-      <c r="J21" s="54" t="s">
+      <c r="J21" s="28" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A22" s="57"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="30" t="s">
+      <c r="A22" s="67"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="53" t="s">
+      <c r="H22" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="I22" s="32">
-        <v>2</v>
-      </c>
-      <c r="J22" s="54" t="s">
+      <c r="I22" s="15">
+        <v>2</v>
+      </c>
+      <c r="J22" s="28" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2452,32 +2461,32 @@
       <c r="E23" s="7">
         <v>11</v>
       </c>
-      <c r="F23" s="45" t="s">
+      <c r="F23" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="45" t="s">
+      <c r="G23" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="H23" s="45" t="s">
+      <c r="H23" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="45" t="s">
+      <c r="I23" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="J23" s="45" t="s">
+      <c r="J23" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="23.25" customHeight="1">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
       <c r="F24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G24" s="60" t="s">
+      <c r="G24" s="29" t="s">
         <v>88</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -2491,15 +2500,15 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
       <c r="F25" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G25" s="60" t="s">
+      <c r="G25" s="29" t="s">
         <v>91</v>
       </c>
       <c r="H25" s="3" t="s">
@@ -2513,15 +2522,15 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
       <c r="F26" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G26" s="60" t="s">
+      <c r="G26" s="29" t="s">
         <v>93</v>
       </c>
       <c r="H26" s="3" t="s">
@@ -2535,15 +2544,15 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
       <c r="F27" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G27" s="60" t="s">
+      <c r="G27" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H27" s="3" t="s">
@@ -2557,11 +2566,11 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
       <c r="F28" s="7" t="s">
         <v>19</v>
       </c>
@@ -2581,22 +2590,22 @@
     <row r="30" spans="1:10" ht="25.15" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A10:E14"/>
+    <mergeCell ref="A16:E22"/>
+    <mergeCell ref="A24:E28"/>
+    <mergeCell ref="A5:E8"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
     <mergeCell ref="J1:J3"/>
-    <mergeCell ref="A10:E14"/>
-    <mergeCell ref="A16:E22"/>
-    <mergeCell ref="A24:E28"/>
-    <mergeCell ref="A5:E8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2610,8 +2619,8 @@
   </sheetPr>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25"/>
@@ -2627,128 +2636,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="52" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
     </row>
     <row r="3" spans="1:10" ht="25.15" customHeight="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="4" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A4" s="20">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="9">
         <v>90</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="9">
         <v>9</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="20">
-        <v>2</v>
-      </c>
-      <c r="J4" s="54" t="s">
+      <c r="I4" s="9">
+        <v>2</v>
+      </c>
+      <c r="J4" s="28" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A5" s="55"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="20" t="s">
+      <c r="A5" s="65"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="16">
         <v>1</v>
       </c>
-      <c r="J5" s="69" t="s">
-        <v>52</v>
+      <c r="J5" s="89" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A6" s="56"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="20" t="s">
+      <c r="A6" s="66"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="10" t="s">
         <v>60</v>
       </c>
       <c r="I6" s="7">
@@ -2759,18 +2768,18 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A7" s="56"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="67" t="s">
+      <c r="A7" s="66"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="67" t="s">
+      <c r="G7" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="H7" s="68" t="s">
+      <c r="H7" s="31" t="s">
         <v>28</v>
       </c>
       <c r="I7" s="7">
@@ -2781,211 +2790,211 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="20" t="s">
+      <c r="A8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="37">
-        <v>2</v>
-      </c>
-      <c r="J8" s="70" t="s">
+      <c r="I8" s="20">
+        <v>2</v>
+      </c>
+      <c r="J8" s="32" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A9" s="20">
+      <c r="A9" s="9">
         <v>6</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="9">
         <v>90</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="9">
         <v>10</v>
       </c>
-      <c r="F9" s="72" t="s">
+      <c r="F9" s="34" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="74" t="s">
+      <c r="H9" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="71" t="s">
+      <c r="I9" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A10" s="55"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="73" t="s">
+      <c r="A10" s="65"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="35" t="s">
         <v>111</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H10" s="75" t="s">
+      <c r="H10" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="36">
-        <v>2</v>
-      </c>
-      <c r="J10" s="47" t="s">
+      <c r="I10" s="19">
+        <v>2</v>
+      </c>
+      <c r="J10" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="25.15" customHeight="1">
-      <c r="A11" s="56"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="73" t="s">
+      <c r="A11" s="66"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="35" t="s">
         <v>112</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="75" t="s">
+      <c r="H11" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="36">
-        <v>2</v>
-      </c>
-      <c r="J11" s="47" t="s">
+      <c r="I11" s="19">
+        <v>2</v>
+      </c>
+      <c r="J11" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A12" s="56"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="73" t="s">
+      <c r="A12" s="66"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="35" t="s">
         <v>113</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H12" s="75" t="s">
+      <c r="H12" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="36">
-        <v>2</v>
-      </c>
-      <c r="J12" s="47" t="s">
+      <c r="I12" s="19">
+        <v>2</v>
+      </c>
+      <c r="J12" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A13" s="56"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="73" t="s">
+      <c r="A13" s="66"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="35" t="s">
         <v>114</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H13" s="75" t="s">
+      <c r="H13" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="36">
-        <v>2</v>
-      </c>
-      <c r="J13" s="47" t="s">
+      <c r="I13" s="19">
+        <v>2</v>
+      </c>
+      <c r="J13" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A14" s="56"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
       <c r="F14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="76" t="s">
+      <c r="G14" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="36">
-        <v>2</v>
-      </c>
-      <c r="J14" s="47" t="s">
+      <c r="I14" s="19">
+        <v>2</v>
+      </c>
+      <c r="J14" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A15" s="33">
+      <c r="A15" s="16">
         <v>4</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="16">
         <v>89</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="16">
         <v>8</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="71" t="s">
+      <c r="H15" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="71" t="s">
+      <c r="I15" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="45" t="s">
+      <c r="J15" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="28" t="s">
+      <c r="A16" s="70"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="10" t="s">
         <v>122</v>
       </c>
       <c r="H16" s="7" t="s">
@@ -2994,20 +3003,20 @@
       <c r="I16" s="7">
         <v>2</v>
       </c>
-      <c r="J16" s="47" t="s">
-        <v>52</v>
+      <c r="J16" s="89" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="25.15" customHeight="1">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="28" t="s">
+      <c r="A17" s="70"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="10" t="s">
         <v>123</v>
       </c>
       <c r="H17" s="7" t="s">
@@ -3016,20 +3025,20 @@
       <c r="I17" s="7">
         <v>1</v>
       </c>
-      <c r="J17" s="47" t="s">
+      <c r="J17" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="28" t="s">
+      <c r="A18" s="70"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="10" t="s">
         <v>125</v>
       </c>
       <c r="H18" s="7" t="s">
@@ -3038,42 +3047,42 @@
       <c r="I18" s="7">
         <v>1</v>
       </c>
-      <c r="J18" s="47" t="s">
+      <c r="J18" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="77" t="s">
+      <c r="A19" s="70"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="H19" s="78" t="s">
+      <c r="H19" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="78">
-        <v>2</v>
-      </c>
-      <c r="J19" s="47" t="s">
+      <c r="I19" s="40">
+        <v>2</v>
+      </c>
+      <c r="J19" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="28" t="s">
+      <c r="A20" s="70"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="10" t="s">
         <v>62</v>
       </c>
       <c r="H20" s="7" t="s">
@@ -3082,7 +3091,7 @@
       <c r="I20" s="7">
         <v>2</v>
       </c>
-      <c r="J20" s="47" t="s">
+      <c r="J20" s="24" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3090,6 +3099,7 @@
     <row r="22" spans="1:10" ht="19.899999999999999" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J1:J3"/>
     <mergeCell ref="A10:E14"/>
     <mergeCell ref="A16:E20"/>
     <mergeCell ref="I1:I3"/>
@@ -3102,7 +3112,6 @@
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="A5:E8"/>
-    <mergeCell ref="J1:J3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3116,8 +3125,8 @@
   </sheetPr>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:E22"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25"/>
@@ -3133,60 +3142,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="52" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
     </row>
     <row r="3" spans="1:10" ht="25.15" customHeight="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="4" spans="1:10" ht="19.899999999999999" customHeight="1">
       <c r="A4" s="7">
@@ -3221,18 +3230,18 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="80"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="82"/>
       <c r="F5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="H5" s="87" t="s">
+      <c r="H5" s="41" t="s">
         <v>89</v>
       </c>
       <c r="I5" s="7">
@@ -3243,18 +3252,18 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A6" s="81"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="83"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="85"/>
       <c r="F6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="60" t="s">
+      <c r="G6" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="87" t="s">
+      <c r="H6" s="41" t="s">
         <v>28</v>
       </c>
       <c r="I6" s="7">
@@ -3265,18 +3274,18 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A7" s="81"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="83"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="85"/>
       <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="H7" s="87" t="s">
+      <c r="H7" s="41" t="s">
         <v>94</v>
       </c>
       <c r="I7" s="7">
@@ -3287,40 +3296,40 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="25.15" customHeight="1">
-      <c r="A8" s="81"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="83"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="85"/>
       <c r="F8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="G8" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="H8" s="87" t="s">
+      <c r="H8" s="41" t="s">
         <v>98</v>
       </c>
       <c r="I8" s="7">
         <v>3</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>22</v>
+      <c r="J8" s="89" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A9" s="81"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="83"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="85"/>
       <c r="F9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="60" t="s">
+      <c r="G9" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="H9" s="87" t="s">
+      <c r="H9" s="41" t="s">
         <v>97</v>
       </c>
       <c r="I9" s="7">
@@ -3331,18 +3340,18 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A10" s="81"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="83"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="85"/>
       <c r="F10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="G10" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="H10" s="87" t="s">
+      <c r="H10" s="41" t="s">
         <v>97</v>
       </c>
       <c r="I10" s="7">
@@ -3353,18 +3362,18 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A11" s="84"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="73" t="s">
+      <c r="A11" s="86"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="35" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="88" t="s">
+      <c r="H11" s="42" t="s">
         <v>89</v>
       </c>
       <c r="I11" s="7">
@@ -3407,18 +3416,18 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="25.15" customHeight="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
       <c r="F13" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H13" s="87" t="s">
+      <c r="H13" s="41" t="s">
         <v>94</v>
       </c>
       <c r="I13" s="7">
@@ -3429,18 +3438,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H14" s="87" t="s">
+      <c r="H14" s="41" t="s">
         <v>97</v>
       </c>
       <c r="I14" s="7">
@@ -3451,62 +3460,62 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
       <c r="F15" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="H15" s="87" t="s">
+      <c r="H15" s="41" t="s">
         <v>89</v>
       </c>
       <c r="I15" s="7">
         <v>4</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>22</v>
+      <c r="J15" s="89" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H16" s="87" t="s">
+      <c r="H16" s="41" t="s">
         <v>28</v>
       </c>
       <c r="I16" s="7">
         <v>4</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>22</v>
+      <c r="J16" s="89" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
       <c r="F17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="87" t="s">
+      <c r="H17" s="41" t="s">
         <v>97</v>
       </c>
       <c r="I17" s="7">
@@ -3517,19 +3526,19 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A18" s="36">
-        <v>2</v>
-      </c>
-      <c r="B18" s="35" t="s">
+      <c r="A18" s="19">
+        <v>2</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="19">
         <v>85</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="19">
         <v>4</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -3549,18 +3558,18 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="73"/>
       <c r="F19" s="8" t="s">
         <v>147</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="H19" s="89" t="s">
+      <c r="H19" s="43" t="s">
         <v>89</v>
       </c>
       <c r="I19" s="8">
@@ -3571,21 +3580,21 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="35" t="s">
+      <c r="A20" s="75"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="H20" s="35" t="s">
+      <c r="H20" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="19">
         <v>1</v>
       </c>
       <c r="J20" s="5" t="s">
@@ -3593,21 +3602,21 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="19.899999999999999" customHeight="1">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="35" t="s">
+      <c r="A21" s="75"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="H21" s="35" t="s">
+      <c r="H21" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21" s="19">
         <v>1</v>
       </c>
       <c r="J21" s="5" t="s">
@@ -3615,21 +3624,21 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="35" t="s">
+      <c r="A22" s="75"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="35" t="s">
+      <c r="G22" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="35" t="s">
+      <c r="H22" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I22" s="19">
         <v>1</v>
       </c>
       <c r="J22" s="5" t="s">
@@ -3638,16 +3647,16 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="A5:E11"/>
     <mergeCell ref="A13:E17"/>
     <mergeCell ref="A19:E22"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
